--- a/biology/Histoire de la zoologie et de la botanique/Dewey_Soper/Dewey_Soper.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dewey_Soper/Dewey_Soper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Dewey Soper (né le 5 mai 1893 à Guelph en Ontario et décédé le 2 novembre 1982 à Edmonton en Alberta) était un auteur, un ornithologue, un zoologiste et un explorateur de l'Arctique canadien.
 </t>
@@ -511,7 +523,9 @@
           <t>Dédicace</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le refuge d'oiseaux de Dewey Soper (anglais : Dewey Soper Migratory Bird Sanctuary), refuge d'oiseaux migrateurs du Nunavut (Canada) situé à l'ouest de l'île de Baffin dans la Grande plaine de la Koukdjuak, est dédié à sa mémoire. 
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oiseaux
 Waterfowl and Other Ornithological Investigations in Yukon Territory, Canada, 1950. Wildlife management bulletin, no. 7, 1954.
